--- a/tables/Table_S2_qc.xlsx
+++ b/tables/Table_S2_qc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/GitHub/Taiji_ALTRA/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C52CD6-8F88-2541-9855-D3D7EFBE0E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62970AC-CE24-6F48-9616-F0438E6B9B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{B966EE90-0748-1B46-ABC9-52A4DB7E4CA3}"/>
   </bookViews>
@@ -103,8 +103,1253 @@
     <t>sample</t>
   </si>
   <si>
+    <t>nCells_RNA</t>
+  </si>
+  <si>
+    <t>median_RNA_mitochondrial_UMIs</t>
+  </si>
+  <si>
+    <t>median_RNA_ribosomal_UMIs</t>
+  </si>
+  <si>
+    <t>median_RNA_unique_UMIs</t>
+  </si>
+  <si>
+    <t>median_RNA_unique_genes</t>
+  </si>
+  <si>
+    <t>median_RNA_complexity</t>
+  </si>
+  <si>
+    <t>nCells_ATAC</t>
+  </si>
+  <si>
+    <t>median_ATAC_mitochondrial_reads</t>
+  </si>
+  <si>
+    <t>median_ATAC_TSS_reads</t>
+  </si>
+  <si>
+    <t>median_ATAC_peak_reads</t>
+  </si>
+  <si>
+    <t>median_ATAC_unique_fragments</t>
+  </si>
+  <si>
+    <t>median_ATAC_TSS_enrichment</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>152 | 2.8%</t>
+  </si>
+  <si>
+    <t>2252 | 43.3%</t>
+  </si>
+  <si>
+    <t>73 | 1.5%</t>
+  </si>
+  <si>
+    <t>2685 | 49.5%</t>
+  </si>
+  <si>
+    <t>3925 | 72%</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>226 | 4.3%</t>
+  </si>
+  <si>
+    <t>1734 | 33.2%</t>
+  </si>
+  <si>
+    <t>200 | 3.7%</t>
+  </si>
+  <si>
+    <t>2785 | 51.2%</t>
+  </si>
+  <si>
+    <t>4009 | 73.7%</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>209 | 3.9%</t>
+  </si>
+  <si>
+    <t>1679 | 24.5%</t>
+  </si>
+  <si>
+    <t>118 | 5%</t>
+  </si>
+  <si>
+    <t>2416 | 49.5%</t>
+  </si>
+  <si>
+    <t>3419 | 71.6%</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>161 | 3.6%</t>
+  </si>
+  <si>
+    <t>1721 | 37.7%</t>
+  </si>
+  <si>
+    <t>190 | 3.7%</t>
+  </si>
+  <si>
+    <t>2904 | 52.5%</t>
+  </si>
+  <si>
+    <t>4072 | 73.7%</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>162 | 3.4%</t>
+  </si>
+  <si>
+    <t>1377 | 26.5%</t>
+  </si>
+  <si>
+    <t>154 | 3.3%</t>
+  </si>
+  <si>
+    <t>2468 | 50.7%</t>
+  </si>
+  <si>
+    <t>3652 | 74.4%</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>172 | 3.5%</t>
+  </si>
+  <si>
+    <t>1747 | 35.4%</t>
+  </si>
+  <si>
+    <t>432 | 8.2%</t>
+  </si>
+  <si>
+    <t>2960 | 54%</t>
+  </si>
+  <si>
+    <t>4083 | 74.4%</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>132 | 2.9%</t>
+  </si>
+  <si>
+    <t>1091 | 23.1%</t>
+  </si>
+  <si>
+    <t>493 | 5.4%</t>
+  </si>
+  <si>
+    <t>3784 | 36.4%</t>
+  </si>
+  <si>
+    <t>6405 | 63%</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>150 | 3.6%</t>
+  </si>
+  <si>
+    <t>1055 | 24.4%</t>
+  </si>
+  <si>
+    <t>711 | 8.4%</t>
+  </si>
+  <si>
+    <t>3348 | 35.5%</t>
+  </si>
+  <si>
+    <t>5182 | 56.1%</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>126 | 3.2%</t>
+  </si>
+  <si>
+    <t>1257 | 30.7%</t>
+  </si>
+  <si>
+    <t>1042 | 13.9%</t>
+  </si>
+  <si>
+    <t>3580 | 43.4%</t>
+  </si>
+  <si>
+    <t>5312 | 65.1%</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>185 | 3.6%</t>
+  </si>
+  <si>
+    <t>1577 | 30.5%</t>
+  </si>
+  <si>
+    <t>259 | 5.8%</t>
+  </si>
+  <si>
+    <t>2104 | 44.8%</t>
+  </si>
+  <si>
+    <t>3078 | 65.8%</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>186 | 3.6%</t>
+  </si>
+  <si>
+    <t>1620 | 30.7%</t>
+  </si>
+  <si>
+    <t>271 | 6%</t>
+  </si>
+  <si>
+    <t>1979 | 40.7%</t>
+  </si>
+  <si>
+    <t>2887 | 60%</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>156 | 3.3%</t>
+  </si>
+  <si>
+    <t>1604 | 30.7%</t>
+  </si>
+  <si>
+    <t>148 | 2.8%</t>
+  </si>
+  <si>
+    <t>1719 | 31%</t>
+  </si>
+  <si>
+    <t>2618 | 47.5%</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>196 | 3.7%</t>
+  </si>
+  <si>
+    <t>1825 | 33.2%</t>
+  </si>
+  <si>
+    <t>231 | 4.1%</t>
+  </si>
+  <si>
+    <t>1707 | 29.5%</t>
+  </si>
+  <si>
+    <t>2594 | 45%</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>109 | 2.7%</t>
+  </si>
+  <si>
+    <t>1491 | 37%</t>
+  </si>
+  <si>
+    <t>1140 | 23.4%</t>
+  </si>
+  <si>
+    <t>3089 | 54.5%</t>
+  </si>
+  <si>
+    <t>4328 | 76.7%</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>145 | 3.3%</t>
+  </si>
+  <si>
+    <t>1369 | 32.6%</t>
+  </si>
+  <si>
+    <t>1310 | 25.8%</t>
+  </si>
+  <si>
+    <t>2751 | 52.7%</t>
+  </si>
+  <si>
+    <t>3821 | 73.3%</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>139 | 2.9%</t>
+  </si>
+  <si>
+    <t>1436 | 27%</t>
+  </si>
+  <si>
+    <t>320 | 4.1%</t>
+  </si>
+  <si>
+    <t>2344 | 31.5%</t>
+  </si>
+  <si>
+    <t>3639 | 49.4%</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>152 | 2.9%</t>
+  </si>
+  <si>
+    <t>1736 | 29.8%</t>
+  </si>
+  <si>
+    <t>1560 | 27.6%</t>
+  </si>
+  <si>
+    <t>2984 | 51.5%</t>
+  </si>
+  <si>
+    <t>4311 | 73.8%</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>153 | 3.5%</t>
+  </si>
+  <si>
+    <t>1260 | 30.2%</t>
+  </si>
+  <si>
+    <t>158 | 4.5%</t>
+  </si>
+  <si>
+    <t>1811 | 51.2%</t>
+  </si>
+  <si>
+    <t>2598 | 73.3%</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>182 | 3.6%</t>
+  </si>
+  <si>
+    <t>1216 | 22.3%</t>
+  </si>
+  <si>
+    <t>274 | 8.2%</t>
+  </si>
+  <si>
+    <t>1772 | 53.4%</t>
+  </si>
+  <si>
+    <t>2530 | 76.2%</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>190 | 3.4%</t>
+  </si>
+  <si>
+    <t>1501 | 23.9%</t>
+  </si>
+  <si>
+    <t>183 | 5.7%</t>
+  </si>
+  <si>
+    <t>1765 | 54.9%</t>
+  </si>
+  <si>
+    <t>2491 | 76.4%</t>
+  </si>
+  <si>
+    <t>p21</t>
+  </si>
+  <si>
+    <t>225 | 3.3%</t>
+  </si>
+  <si>
+    <t>1554 | 22.4%</t>
+  </si>
+  <si>
+    <t>263 | 6.6%</t>
+  </si>
+  <si>
+    <t>2066 | 53.5%</t>
+  </si>
+  <si>
+    <t>2992 | 76.5%</t>
+  </si>
+  <si>
+    <t>p22</t>
+  </si>
+  <si>
+    <t>159 | 3.2%</t>
+  </si>
+  <si>
+    <t>1476 | 30.3%</t>
+  </si>
+  <si>
+    <t>356 | 9.1%</t>
+  </si>
+  <si>
+    <t>2124 | 53.8%</t>
+  </si>
+  <si>
+    <t>3057 | 76.9%</t>
+  </si>
+  <si>
+    <t>p23</t>
+  </si>
+  <si>
+    <t>193 | 3.7%</t>
+  </si>
+  <si>
+    <t>1530 | 29.6%</t>
+  </si>
+  <si>
+    <t>465 | 10%</t>
+  </si>
+  <si>
+    <t>2421 | 53.2%</t>
+  </si>
+  <si>
+    <t>3476 | 76.3%</t>
+  </si>
+  <si>
+    <t>p24</t>
+  </si>
+  <si>
+    <t>216 | 4%</t>
+  </si>
+  <si>
+    <t>1582 | 29.1%</t>
+  </si>
+  <si>
+    <t>211 | 4.1%</t>
+  </si>
+  <si>
+    <t>2662 | 53%</t>
+  </si>
+  <si>
+    <t>3914 | 77.2%</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>182 | 4%</t>
+  </si>
+  <si>
+    <t>1279 | 28.3%</t>
+  </si>
+  <si>
+    <t>467 | 7.4%</t>
+  </si>
+  <si>
+    <t>3622 | 52.9%</t>
+  </si>
+  <si>
+    <t>5106 | 74.8%</t>
+  </si>
+  <si>
+    <t>p26</t>
+  </si>
+  <si>
+    <t>199 | 4.4%</t>
+  </si>
+  <si>
+    <t>1488 | 33.8%</t>
+  </si>
+  <si>
+    <t>179 | 3.1%</t>
+  </si>
+  <si>
+    <t>3179 | 51.6%</t>
+  </si>
+  <si>
+    <t>4567 | 74.3%</t>
+  </si>
+  <si>
+    <t>p27</t>
+  </si>
+  <si>
+    <t>124 | 2.7%</t>
+  </si>
+  <si>
+    <t>2024 | 42.8%</t>
+  </si>
+  <si>
+    <t>330 | 7.5%</t>
+  </si>
+  <si>
+    <t>2456 | 52.8%</t>
+  </si>
+  <si>
+    <t>3491 | 75.5%</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>165 | 3.1%</t>
+  </si>
+  <si>
+    <t>1924 | 38%</t>
+  </si>
+  <si>
+    <t>360 | 8.6%</t>
+  </si>
+  <si>
+    <t>2378 | 52.9%</t>
+  </si>
+  <si>
+    <t>3359 | 75%</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>135 | 3%</t>
+  </si>
+  <si>
+    <t>1546 | 35.3%</t>
+  </si>
+  <si>
+    <t>437 | 7.8%</t>
+  </si>
+  <si>
+    <t>3227 | 53.8%</t>
+  </si>
+  <si>
+    <t>4463 | 74.6%</t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>188 | 3.9%</t>
+  </si>
+  <si>
+    <t>1615 | 33.9%</t>
+  </si>
+  <si>
+    <t>353 | 3.9%</t>
+  </si>
+  <si>
+    <t>4798 | 53%</t>
+  </si>
+  <si>
+    <t>6738 | 74.4%</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>174 | 4.4%</t>
+  </si>
+  <si>
+    <t>1421 | 36.3%</t>
+  </si>
+  <si>
+    <t>253 | 5%</t>
+  </si>
+  <si>
+    <t>2762 | 51.3%</t>
+  </si>
+  <si>
+    <t>3939 | 73.1%</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>1913 | 37.9%</t>
+  </si>
+  <si>
+    <t>236 | 4.9%</t>
+  </si>
+  <si>
+    <t>2483 | 50.6%</t>
+  </si>
+  <si>
+    <t>3542 | 72.3%</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>159 | 4.2%</t>
+  </si>
+  <si>
+    <t>1007 | 25.4%</t>
+  </si>
+  <si>
+    <t>1218 | 12%</t>
+  </si>
+  <si>
+    <t>4352 | 39.4%</t>
+  </si>
+  <si>
+    <t>7144 | 65%</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>203 | 3.5%</t>
+  </si>
+  <si>
+    <t>1650 | 25.7%</t>
+  </si>
+  <si>
+    <t>450 | 8.2%</t>
+  </si>
+  <si>
+    <t>2305 | 35.6%</t>
+  </si>
+  <si>
+    <t>3687 | 58.5%</t>
+  </si>
+  <si>
+    <t>p35</t>
+  </si>
+  <si>
+    <t>1586 | 30.8%</t>
+  </si>
+  <si>
+    <t>332 | 6.8%</t>
+  </si>
+  <si>
+    <t>2254 | 39.9%</t>
+  </si>
+  <si>
+    <t>3376 | 60.3%</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t>221 | 3.3%</t>
+  </si>
+  <si>
+    <t>2023 | 28.3%</t>
+  </si>
+  <si>
+    <t>241 | 3.5%</t>
+  </si>
+  <si>
+    <t>1798 | 25.3%</t>
+  </si>
+  <si>
+    <t>2902 | 40.7%</t>
+  </si>
+  <si>
+    <t>p37</t>
+  </si>
+  <si>
+    <t>184 | 3.8%</t>
+  </si>
+  <si>
+    <t>1470 | 30%</t>
+  </si>
+  <si>
+    <t>1163 | 22.4%</t>
+  </si>
+  <si>
+    <t>3480 | 54.8%</t>
+  </si>
+  <si>
+    <t>4910 | 77.1%</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>154 | 4%</t>
+  </si>
+  <si>
+    <t>870 | 23.3%</t>
+  </si>
+  <si>
+    <t>1152 | 19.9%</t>
+  </si>
+  <si>
+    <t>2896 | 52%</t>
+  </si>
+  <si>
+    <t>4070 | 72.8%</t>
+  </si>
+  <si>
+    <t>p39</t>
+  </si>
+  <si>
+    <t>113 | 2.9%</t>
+  </si>
+  <si>
+    <t>1338 | 34%</t>
+  </si>
+  <si>
+    <t>287 | 9.6%</t>
+  </si>
+  <si>
+    <t>2098 | 52.5%</t>
+  </si>
+  <si>
+    <t>2942 | 74.5%</t>
+  </si>
+  <si>
+    <t>p40</t>
+  </si>
+  <si>
+    <t>212 | 3.6%</t>
+  </si>
+  <si>
+    <t>1586 | 25.7%</t>
+  </si>
+  <si>
+    <t>171 | 3.2%</t>
+  </si>
+  <si>
+    <t>2702 | 49.4%</t>
+  </si>
+  <si>
+    <t>3849 | 70.3%</t>
+  </si>
+  <si>
+    <t>p41</t>
+  </si>
+  <si>
+    <t>199 | 3.3%</t>
+  </si>
+  <si>
+    <t>2108 | 34.2%</t>
+  </si>
+  <si>
+    <t>145 | 2.5%</t>
+  </si>
+  <si>
+    <t>2962 | 49%</t>
+  </si>
+  <si>
+    <t>4253 | 70.1%</t>
+  </si>
+  <si>
+    <t>p42</t>
+  </si>
+  <si>
+    <t>174 | 3.2%</t>
+  </si>
+  <si>
+    <t>2112 | 38.4%</t>
+  </si>
+  <si>
+    <t>101 | 4.1%</t>
+  </si>
+  <si>
+    <t>2546 | 48.2%</t>
+  </si>
+  <si>
+    <t>3566 | 69.2%</t>
+  </si>
+  <si>
+    <t>p43</t>
+  </si>
+  <si>
+    <t>101 | 2.5%</t>
+  </si>
+  <si>
+    <t>1576 | 39.7%</t>
+  </si>
+  <si>
+    <t>219 | 3.6%</t>
+  </si>
+  <si>
+    <t>3211 | 50.4%</t>
+  </si>
+  <si>
+    <t>4575 | 72%</t>
+  </si>
+  <si>
+    <t>p44</t>
+  </si>
+  <si>
+    <t>177 | 3.3%</t>
+  </si>
+  <si>
+    <t>1764 | 31.7%</t>
+  </si>
+  <si>
+    <t>157 | 2.3%</t>
+  </si>
+  <si>
+    <t>3455 | 50.8%</t>
+  </si>
+  <si>
+    <t>4914 | 72.1%</t>
+  </si>
+  <si>
+    <t>p45</t>
+  </si>
+  <si>
+    <t>251 | 3.9%</t>
+  </si>
+  <si>
+    <t>1882 | 27.6%</t>
+  </si>
+  <si>
+    <t>97 | 1.9%</t>
+  </si>
+  <si>
+    <t>2584 | 51.2%</t>
+  </si>
+  <si>
+    <t>3729 | 73.5%</t>
+  </si>
+  <si>
+    <t>p46</t>
+  </si>
+  <si>
+    <t>230 | 3.8%</t>
+  </si>
+  <si>
+    <t>2005 | 31.1%</t>
+  </si>
+  <si>
+    <t>143 | 2.6%</t>
+  </si>
+  <si>
+    <t>2770 | 48.4%</t>
+  </si>
+  <si>
+    <t>4034 | 70.4%</t>
+  </si>
+  <si>
+    <t>p47</t>
+  </si>
+  <si>
+    <t>171 | 2.9%</t>
+  </si>
+  <si>
+    <t>2159 | 35.6%</t>
+  </si>
+  <si>
+    <t>191 | 2%</t>
+  </si>
+  <si>
+    <t>5874 | 59%</t>
+  </si>
+  <si>
+    <t>7935 | 79.1%</t>
+  </si>
+  <si>
+    <t>p48</t>
+  </si>
+  <si>
+    <t>210 | 4.5%</t>
+  </si>
+  <si>
+    <t>1153 | 24.5%</t>
+  </si>
+  <si>
+    <t>281 | 2.7%</t>
+  </si>
+  <si>
+    <t>6439 | 58.6%</t>
+  </si>
+  <si>
+    <t>8633 | 78.3%</t>
+  </si>
+  <si>
+    <t>p49</t>
+  </si>
+  <si>
+    <t>177 | 3.8%</t>
+  </si>
+  <si>
+    <t>1326 | 26.7%</t>
+  </si>
+  <si>
+    <t>302 | 3.2%</t>
+  </si>
+  <si>
+    <t>6052 | 59.1%</t>
+  </si>
+  <si>
+    <t>7999 | 77.8%</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>145 | 3.5%</t>
+  </si>
+  <si>
+    <t>1462 | 35.3%</t>
+  </si>
+  <si>
+    <t>303 | 2.8%</t>
+  </si>
+  <si>
+    <t>6605 | 60.2%</t>
+  </si>
+  <si>
+    <t>8873 | 80.5%</t>
+  </si>
+  <si>
+    <t>p51</t>
+  </si>
+  <si>
+    <t>187 | 3.7%</t>
+  </si>
+  <si>
+    <t>1609 | 32.3%</t>
+  </si>
+  <si>
+    <t>391 | 3.4%</t>
+  </si>
+  <si>
+    <t>7110 | 61.1%</t>
+  </si>
+  <si>
+    <t>9385 | 80.3%</t>
+  </si>
+  <si>
+    <t>p52</t>
+  </si>
+  <si>
+    <t>286 | 5%</t>
+  </si>
+  <si>
+    <t>1829 | 30.6%</t>
+  </si>
+  <si>
+    <t>236 | 2.7%</t>
+  </si>
+  <si>
+    <t>5266 | 59.4%</t>
+  </si>
+  <si>
+    <t>7047 | 79.2%</t>
+  </si>
+  <si>
+    <t>p53</t>
+  </si>
+  <si>
+    <t>191 | 3.9%</t>
+  </si>
+  <si>
+    <t>1738 | 36.2%</t>
+  </si>
+  <si>
+    <t>323 | 3.2%</t>
+  </si>
+  <si>
+    <t>6644 | 61.8%</t>
+  </si>
+  <si>
+    <t>8743 | 80.6%</t>
+  </si>
+  <si>
+    <t>p54</t>
+  </si>
+  <si>
+    <t>205 | 4.2%</t>
+  </si>
+  <si>
+    <t>1767 | 35.2%</t>
+  </si>
+  <si>
+    <t>226 | 2.2%</t>
+  </si>
+  <si>
+    <t>6277 | 61.2%</t>
+  </si>
+  <si>
+    <t>8337 | 80.9%</t>
+  </si>
+  <si>
+    <t>p55</t>
+  </si>
+  <si>
+    <t>100 | 2.9%</t>
+  </si>
+  <si>
+    <t>1144 | 31.6%</t>
+  </si>
+  <si>
+    <t>109 | 1.2%</t>
+  </si>
+  <si>
+    <t>5731 | 61.4%</t>
+  </si>
+  <si>
+    <t>7488 | 79.8%</t>
+  </si>
+  <si>
+    <t>p56</t>
+  </si>
+  <si>
+    <t>143 | 3.4%</t>
+  </si>
+  <si>
+    <t>1467 | 34.2%</t>
+  </si>
+  <si>
+    <t>339 | 4%</t>
+  </si>
+  <si>
+    <t>5672 | 61%</t>
+  </si>
+  <si>
+    <t>7463 | 80%</t>
+  </si>
+  <si>
+    <t>p57</t>
+  </si>
+  <si>
+    <t>199 | 3.6%</t>
+  </si>
+  <si>
+    <t>1674 | 26%</t>
+  </si>
+  <si>
+    <t>77 | 1.6%</t>
+  </si>
+  <si>
+    <t>2373 | 50.7%</t>
+  </si>
+  <si>
+    <t>3426 | 73.2%</t>
+  </si>
+  <si>
+    <t>p58</t>
+  </si>
+  <si>
+    <t>204 | 3.8%</t>
+  </si>
+  <si>
+    <t>2255 | 41.5%</t>
+  </si>
+  <si>
+    <t>207 | 5%</t>
+  </si>
+  <si>
+    <t>2311 | 52.3%</t>
+  </si>
+  <si>
+    <t>3293 | 74.6%</t>
+  </si>
+  <si>
+    <t>p59</t>
+  </si>
+  <si>
+    <t>203 | 4.4%</t>
+  </si>
+  <si>
+    <t>1690 | 34.1%</t>
+  </si>
+  <si>
+    <t>285 | 6.2%</t>
+  </si>
+  <si>
+    <t>2520 | 51.3%</t>
+  </si>
+  <si>
+    <t>3591 | 73.2%</t>
+  </si>
+  <si>
+    <t>p60</t>
+  </si>
+  <si>
+    <t>165 | 3.8%</t>
+  </si>
+  <si>
+    <t>1471 | 30.5%</t>
+  </si>
+  <si>
+    <t>230 | 5.6%</t>
+  </si>
+  <si>
+    <t>2510 | 52.3%</t>
+  </si>
+  <si>
+    <t>3515 | 73%</t>
+  </si>
+  <si>
+    <t>p61</t>
+  </si>
+  <si>
+    <t>154 | 3.4%</t>
+  </si>
+  <si>
+    <t>1799 | 39.8%</t>
+  </si>
+  <si>
+    <t>314 | 7.6%</t>
+  </si>
+  <si>
+    <t>2336 | 54%</t>
+  </si>
+  <si>
+    <t>3211 | 74.4%</t>
+  </si>
+  <si>
+    <t>p62</t>
+  </si>
+  <si>
+    <t>132 | 2.6%</t>
+  </si>
+  <si>
+    <t>2107 | 41.6%</t>
+  </si>
+  <si>
+    <t>343 | 8.6%</t>
+  </si>
+  <si>
+    <t>2289 | 54.2%</t>
+  </si>
+  <si>
+    <t>3170 | 75.2%</t>
+  </si>
+  <si>
+    <t>p63</t>
+  </si>
+  <si>
+    <t>169 | 3.4%</t>
+  </si>
+  <si>
+    <t>1883 | 38.6%</t>
+  </si>
+  <si>
+    <t>187 | 3.8%</t>
+  </si>
+  <si>
+    <t>2561 | 50.5%</t>
+  </si>
+  <si>
+    <t>3631 | 71.3%</t>
+  </si>
+  <si>
+    <t>p64</t>
+  </si>
+  <si>
+    <t>154 | 3.2%</t>
+  </si>
+  <si>
+    <t>2035 | 40.7%</t>
+  </si>
+  <si>
+    <t>217 | 5%</t>
+  </si>
+  <si>
+    <t>2394 | 52.1%</t>
+  </si>
+  <si>
+    <t>3362 | 73.5%</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>202 | 3.7%</t>
+  </si>
+  <si>
+    <t>1684 | 23.8%</t>
+  </si>
+  <si>
+    <t>141 | 3.9%</t>
+  </si>
+  <si>
+    <t>1857 | 47%</t>
+  </si>
+  <si>
+    <t>2669 | 67.5%</t>
+  </si>
+  <si>
+    <t>p66</t>
+  </si>
+  <si>
+    <t>190 | 4%</t>
+  </si>
+  <si>
+    <t>1816 | 38.8%</t>
+  </si>
+  <si>
+    <t>245 | 6.3%</t>
+  </si>
+  <si>
+    <t>2199 | 51.1%</t>
+  </si>
+  <si>
+    <t>3070 | 71.2%</t>
+  </si>
+  <si>
+    <t>p67</t>
+  </si>
+  <si>
+    <t>166 | 3.4%</t>
+  </si>
+  <si>
+    <t>1615 | 33.7%</t>
+  </si>
+  <si>
+    <t>111 | 1.7%</t>
+  </si>
+  <si>
+    <t>4258 | 61.7%</t>
+  </si>
+  <si>
+    <t>5637 | 81.3%</t>
+  </si>
+  <si>
+    <t>Assay</t>
+  </si>
+  <si>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>scATAC-seq</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Supplementary Table S3. </t>
+      <t xml:space="preserve">Supplementary Table S2. </t>
     </r>
     <r>
       <rPr>
@@ -114,1253 +1359,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cell counts in co-embedded clusters across different assays</t>
+      <t>QC metrics summary for each sample</t>
     </r>
-  </si>
-  <si>
-    <t>nCells_RNA</t>
-  </si>
-  <si>
-    <t>median_RNA_mitochondrial_UMIs</t>
-  </si>
-  <si>
-    <t>median_RNA_ribosomal_UMIs</t>
-  </si>
-  <si>
-    <t>median_RNA_unique_UMIs</t>
-  </si>
-  <si>
-    <t>median_RNA_unique_genes</t>
-  </si>
-  <si>
-    <t>median_RNA_complexity</t>
-  </si>
-  <si>
-    <t>nCells_ATAC</t>
-  </si>
-  <si>
-    <t>median_ATAC_mitochondrial_reads</t>
-  </si>
-  <si>
-    <t>median_ATAC_TSS_reads</t>
-  </si>
-  <si>
-    <t>median_ATAC_peak_reads</t>
-  </si>
-  <si>
-    <t>median_ATAC_unique_fragments</t>
-  </si>
-  <si>
-    <t>median_ATAC_TSS_enrichment</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>152 | 2.8%</t>
-  </si>
-  <si>
-    <t>2252 | 43.3%</t>
-  </si>
-  <si>
-    <t>73 | 1.5%</t>
-  </si>
-  <si>
-    <t>2685 | 49.5%</t>
-  </si>
-  <si>
-    <t>3925 | 72%</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>226 | 4.3%</t>
-  </si>
-  <si>
-    <t>1734 | 33.2%</t>
-  </si>
-  <si>
-    <t>200 | 3.7%</t>
-  </si>
-  <si>
-    <t>2785 | 51.2%</t>
-  </si>
-  <si>
-    <t>4009 | 73.7%</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>209 | 3.9%</t>
-  </si>
-  <si>
-    <t>1679 | 24.5%</t>
-  </si>
-  <si>
-    <t>118 | 5%</t>
-  </si>
-  <si>
-    <t>2416 | 49.5%</t>
-  </si>
-  <si>
-    <t>3419 | 71.6%</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>161 | 3.6%</t>
-  </si>
-  <si>
-    <t>1721 | 37.7%</t>
-  </si>
-  <si>
-    <t>190 | 3.7%</t>
-  </si>
-  <si>
-    <t>2904 | 52.5%</t>
-  </si>
-  <si>
-    <t>4072 | 73.7%</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>162 | 3.4%</t>
-  </si>
-  <si>
-    <t>1377 | 26.5%</t>
-  </si>
-  <si>
-    <t>154 | 3.3%</t>
-  </si>
-  <si>
-    <t>2468 | 50.7%</t>
-  </si>
-  <si>
-    <t>3652 | 74.4%</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>172 | 3.5%</t>
-  </si>
-  <si>
-    <t>1747 | 35.4%</t>
-  </si>
-  <si>
-    <t>432 | 8.2%</t>
-  </si>
-  <si>
-    <t>2960 | 54%</t>
-  </si>
-  <si>
-    <t>4083 | 74.4%</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>132 | 2.9%</t>
-  </si>
-  <si>
-    <t>1091 | 23.1%</t>
-  </si>
-  <si>
-    <t>493 | 5.4%</t>
-  </si>
-  <si>
-    <t>3784 | 36.4%</t>
-  </si>
-  <si>
-    <t>6405 | 63%</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>150 | 3.6%</t>
-  </si>
-  <si>
-    <t>1055 | 24.4%</t>
-  </si>
-  <si>
-    <t>711 | 8.4%</t>
-  </si>
-  <si>
-    <t>3348 | 35.5%</t>
-  </si>
-  <si>
-    <t>5182 | 56.1%</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>126 | 3.2%</t>
-  </si>
-  <si>
-    <t>1257 | 30.7%</t>
-  </si>
-  <si>
-    <t>1042 | 13.9%</t>
-  </si>
-  <si>
-    <t>3580 | 43.4%</t>
-  </si>
-  <si>
-    <t>5312 | 65.1%</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>185 | 3.6%</t>
-  </si>
-  <si>
-    <t>1577 | 30.5%</t>
-  </si>
-  <si>
-    <t>259 | 5.8%</t>
-  </si>
-  <si>
-    <t>2104 | 44.8%</t>
-  </si>
-  <si>
-    <t>3078 | 65.8%</t>
-  </si>
-  <si>
-    <t>p11</t>
-  </si>
-  <si>
-    <t>186 | 3.6%</t>
-  </si>
-  <si>
-    <t>1620 | 30.7%</t>
-  </si>
-  <si>
-    <t>271 | 6%</t>
-  </si>
-  <si>
-    <t>1979 | 40.7%</t>
-  </si>
-  <si>
-    <t>2887 | 60%</t>
-  </si>
-  <si>
-    <t>p12</t>
-  </si>
-  <si>
-    <t>156 | 3.3%</t>
-  </si>
-  <si>
-    <t>1604 | 30.7%</t>
-  </si>
-  <si>
-    <t>148 | 2.8%</t>
-  </si>
-  <si>
-    <t>1719 | 31%</t>
-  </si>
-  <si>
-    <t>2618 | 47.5%</t>
-  </si>
-  <si>
-    <t>p13</t>
-  </si>
-  <si>
-    <t>196 | 3.7%</t>
-  </si>
-  <si>
-    <t>1825 | 33.2%</t>
-  </si>
-  <si>
-    <t>231 | 4.1%</t>
-  </si>
-  <si>
-    <t>1707 | 29.5%</t>
-  </si>
-  <si>
-    <t>2594 | 45%</t>
-  </si>
-  <si>
-    <t>p14</t>
-  </si>
-  <si>
-    <t>109 | 2.7%</t>
-  </si>
-  <si>
-    <t>1491 | 37%</t>
-  </si>
-  <si>
-    <t>1140 | 23.4%</t>
-  </si>
-  <si>
-    <t>3089 | 54.5%</t>
-  </si>
-  <si>
-    <t>4328 | 76.7%</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
-  <si>
-    <t>145 | 3.3%</t>
-  </si>
-  <si>
-    <t>1369 | 32.6%</t>
-  </si>
-  <si>
-    <t>1310 | 25.8%</t>
-  </si>
-  <si>
-    <t>2751 | 52.7%</t>
-  </si>
-  <si>
-    <t>3821 | 73.3%</t>
-  </si>
-  <si>
-    <t>p16</t>
-  </si>
-  <si>
-    <t>139 | 2.9%</t>
-  </si>
-  <si>
-    <t>1436 | 27%</t>
-  </si>
-  <si>
-    <t>320 | 4.1%</t>
-  </si>
-  <si>
-    <t>2344 | 31.5%</t>
-  </si>
-  <si>
-    <t>3639 | 49.4%</t>
-  </si>
-  <si>
-    <t>p17</t>
-  </si>
-  <si>
-    <t>152 | 2.9%</t>
-  </si>
-  <si>
-    <t>1736 | 29.8%</t>
-  </si>
-  <si>
-    <t>1560 | 27.6%</t>
-  </si>
-  <si>
-    <t>2984 | 51.5%</t>
-  </si>
-  <si>
-    <t>4311 | 73.8%</t>
-  </si>
-  <si>
-    <t>p18</t>
-  </si>
-  <si>
-    <t>153 | 3.5%</t>
-  </si>
-  <si>
-    <t>1260 | 30.2%</t>
-  </si>
-  <si>
-    <t>158 | 4.5%</t>
-  </si>
-  <si>
-    <t>1811 | 51.2%</t>
-  </si>
-  <si>
-    <t>2598 | 73.3%</t>
-  </si>
-  <si>
-    <t>p19</t>
-  </si>
-  <si>
-    <t>182 | 3.6%</t>
-  </si>
-  <si>
-    <t>1216 | 22.3%</t>
-  </si>
-  <si>
-    <t>274 | 8.2%</t>
-  </si>
-  <si>
-    <t>1772 | 53.4%</t>
-  </si>
-  <si>
-    <t>2530 | 76.2%</t>
-  </si>
-  <si>
-    <t>p20</t>
-  </si>
-  <si>
-    <t>190 | 3.4%</t>
-  </si>
-  <si>
-    <t>1501 | 23.9%</t>
-  </si>
-  <si>
-    <t>183 | 5.7%</t>
-  </si>
-  <si>
-    <t>1765 | 54.9%</t>
-  </si>
-  <si>
-    <t>2491 | 76.4%</t>
-  </si>
-  <si>
-    <t>p21</t>
-  </si>
-  <si>
-    <t>225 | 3.3%</t>
-  </si>
-  <si>
-    <t>1554 | 22.4%</t>
-  </si>
-  <si>
-    <t>263 | 6.6%</t>
-  </si>
-  <si>
-    <t>2066 | 53.5%</t>
-  </si>
-  <si>
-    <t>2992 | 76.5%</t>
-  </si>
-  <si>
-    <t>p22</t>
-  </si>
-  <si>
-    <t>159 | 3.2%</t>
-  </si>
-  <si>
-    <t>1476 | 30.3%</t>
-  </si>
-  <si>
-    <t>356 | 9.1%</t>
-  </si>
-  <si>
-    <t>2124 | 53.8%</t>
-  </si>
-  <si>
-    <t>3057 | 76.9%</t>
-  </si>
-  <si>
-    <t>p23</t>
-  </si>
-  <si>
-    <t>193 | 3.7%</t>
-  </si>
-  <si>
-    <t>1530 | 29.6%</t>
-  </si>
-  <si>
-    <t>465 | 10%</t>
-  </si>
-  <si>
-    <t>2421 | 53.2%</t>
-  </si>
-  <si>
-    <t>3476 | 76.3%</t>
-  </si>
-  <si>
-    <t>p24</t>
-  </si>
-  <si>
-    <t>216 | 4%</t>
-  </si>
-  <si>
-    <t>1582 | 29.1%</t>
-  </si>
-  <si>
-    <t>211 | 4.1%</t>
-  </si>
-  <si>
-    <t>2662 | 53%</t>
-  </si>
-  <si>
-    <t>3914 | 77.2%</t>
-  </si>
-  <si>
-    <t>p25</t>
-  </si>
-  <si>
-    <t>182 | 4%</t>
-  </si>
-  <si>
-    <t>1279 | 28.3%</t>
-  </si>
-  <si>
-    <t>467 | 7.4%</t>
-  </si>
-  <si>
-    <t>3622 | 52.9%</t>
-  </si>
-  <si>
-    <t>5106 | 74.8%</t>
-  </si>
-  <si>
-    <t>p26</t>
-  </si>
-  <si>
-    <t>199 | 4.4%</t>
-  </si>
-  <si>
-    <t>1488 | 33.8%</t>
-  </si>
-  <si>
-    <t>179 | 3.1%</t>
-  </si>
-  <si>
-    <t>3179 | 51.6%</t>
-  </si>
-  <si>
-    <t>4567 | 74.3%</t>
-  </si>
-  <si>
-    <t>p27</t>
-  </si>
-  <si>
-    <t>124 | 2.7%</t>
-  </si>
-  <si>
-    <t>2024 | 42.8%</t>
-  </si>
-  <si>
-    <t>330 | 7.5%</t>
-  </si>
-  <si>
-    <t>2456 | 52.8%</t>
-  </si>
-  <si>
-    <t>3491 | 75.5%</t>
-  </si>
-  <si>
-    <t>p28</t>
-  </si>
-  <si>
-    <t>165 | 3.1%</t>
-  </si>
-  <si>
-    <t>1924 | 38%</t>
-  </si>
-  <si>
-    <t>360 | 8.6%</t>
-  </si>
-  <si>
-    <t>2378 | 52.9%</t>
-  </si>
-  <si>
-    <t>3359 | 75%</t>
-  </si>
-  <si>
-    <t>p29</t>
-  </si>
-  <si>
-    <t>135 | 3%</t>
-  </si>
-  <si>
-    <t>1546 | 35.3%</t>
-  </si>
-  <si>
-    <t>437 | 7.8%</t>
-  </si>
-  <si>
-    <t>3227 | 53.8%</t>
-  </si>
-  <si>
-    <t>4463 | 74.6%</t>
-  </si>
-  <si>
-    <t>p30</t>
-  </si>
-  <si>
-    <t>188 | 3.9%</t>
-  </si>
-  <si>
-    <t>1615 | 33.9%</t>
-  </si>
-  <si>
-    <t>353 | 3.9%</t>
-  </si>
-  <si>
-    <t>4798 | 53%</t>
-  </si>
-  <si>
-    <t>6738 | 74.4%</t>
-  </si>
-  <si>
-    <t>p31</t>
-  </si>
-  <si>
-    <t>174 | 4.4%</t>
-  </si>
-  <si>
-    <t>1421 | 36.3%</t>
-  </si>
-  <si>
-    <t>253 | 5%</t>
-  </si>
-  <si>
-    <t>2762 | 51.3%</t>
-  </si>
-  <si>
-    <t>3939 | 73.1%</t>
-  </si>
-  <si>
-    <t>p32</t>
-  </si>
-  <si>
-    <t>1913 | 37.9%</t>
-  </si>
-  <si>
-    <t>236 | 4.9%</t>
-  </si>
-  <si>
-    <t>2483 | 50.6%</t>
-  </si>
-  <si>
-    <t>3542 | 72.3%</t>
-  </si>
-  <si>
-    <t>p33</t>
-  </si>
-  <si>
-    <t>159 | 4.2%</t>
-  </si>
-  <si>
-    <t>1007 | 25.4%</t>
-  </si>
-  <si>
-    <t>1218 | 12%</t>
-  </si>
-  <si>
-    <t>4352 | 39.4%</t>
-  </si>
-  <si>
-    <t>7144 | 65%</t>
-  </si>
-  <si>
-    <t>p34</t>
-  </si>
-  <si>
-    <t>203 | 3.5%</t>
-  </si>
-  <si>
-    <t>1650 | 25.7%</t>
-  </si>
-  <si>
-    <t>450 | 8.2%</t>
-  </si>
-  <si>
-    <t>2305 | 35.6%</t>
-  </si>
-  <si>
-    <t>3687 | 58.5%</t>
-  </si>
-  <si>
-    <t>p35</t>
-  </si>
-  <si>
-    <t>1586 | 30.8%</t>
-  </si>
-  <si>
-    <t>332 | 6.8%</t>
-  </si>
-  <si>
-    <t>2254 | 39.9%</t>
-  </si>
-  <si>
-    <t>3376 | 60.3%</t>
-  </si>
-  <si>
-    <t>p36</t>
-  </si>
-  <si>
-    <t>221 | 3.3%</t>
-  </si>
-  <si>
-    <t>2023 | 28.3%</t>
-  </si>
-  <si>
-    <t>241 | 3.5%</t>
-  </si>
-  <si>
-    <t>1798 | 25.3%</t>
-  </si>
-  <si>
-    <t>2902 | 40.7%</t>
-  </si>
-  <si>
-    <t>p37</t>
-  </si>
-  <si>
-    <t>184 | 3.8%</t>
-  </si>
-  <si>
-    <t>1470 | 30%</t>
-  </si>
-  <si>
-    <t>1163 | 22.4%</t>
-  </si>
-  <si>
-    <t>3480 | 54.8%</t>
-  </si>
-  <si>
-    <t>4910 | 77.1%</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>154 | 4%</t>
-  </si>
-  <si>
-    <t>870 | 23.3%</t>
-  </si>
-  <si>
-    <t>1152 | 19.9%</t>
-  </si>
-  <si>
-    <t>2896 | 52%</t>
-  </si>
-  <si>
-    <t>4070 | 72.8%</t>
-  </si>
-  <si>
-    <t>p39</t>
-  </si>
-  <si>
-    <t>113 | 2.9%</t>
-  </si>
-  <si>
-    <t>1338 | 34%</t>
-  </si>
-  <si>
-    <t>287 | 9.6%</t>
-  </si>
-  <si>
-    <t>2098 | 52.5%</t>
-  </si>
-  <si>
-    <t>2942 | 74.5%</t>
-  </si>
-  <si>
-    <t>p40</t>
-  </si>
-  <si>
-    <t>212 | 3.6%</t>
-  </si>
-  <si>
-    <t>1586 | 25.7%</t>
-  </si>
-  <si>
-    <t>171 | 3.2%</t>
-  </si>
-  <si>
-    <t>2702 | 49.4%</t>
-  </si>
-  <si>
-    <t>3849 | 70.3%</t>
-  </si>
-  <si>
-    <t>p41</t>
-  </si>
-  <si>
-    <t>199 | 3.3%</t>
-  </si>
-  <si>
-    <t>2108 | 34.2%</t>
-  </si>
-  <si>
-    <t>145 | 2.5%</t>
-  </si>
-  <si>
-    <t>2962 | 49%</t>
-  </si>
-  <si>
-    <t>4253 | 70.1%</t>
-  </si>
-  <si>
-    <t>p42</t>
-  </si>
-  <si>
-    <t>174 | 3.2%</t>
-  </si>
-  <si>
-    <t>2112 | 38.4%</t>
-  </si>
-  <si>
-    <t>101 | 4.1%</t>
-  </si>
-  <si>
-    <t>2546 | 48.2%</t>
-  </si>
-  <si>
-    <t>3566 | 69.2%</t>
-  </si>
-  <si>
-    <t>p43</t>
-  </si>
-  <si>
-    <t>101 | 2.5%</t>
-  </si>
-  <si>
-    <t>1576 | 39.7%</t>
-  </si>
-  <si>
-    <t>219 | 3.6%</t>
-  </si>
-  <si>
-    <t>3211 | 50.4%</t>
-  </si>
-  <si>
-    <t>4575 | 72%</t>
-  </si>
-  <si>
-    <t>p44</t>
-  </si>
-  <si>
-    <t>177 | 3.3%</t>
-  </si>
-  <si>
-    <t>1764 | 31.7%</t>
-  </si>
-  <si>
-    <t>157 | 2.3%</t>
-  </si>
-  <si>
-    <t>3455 | 50.8%</t>
-  </si>
-  <si>
-    <t>4914 | 72.1%</t>
-  </si>
-  <si>
-    <t>p45</t>
-  </si>
-  <si>
-    <t>251 | 3.9%</t>
-  </si>
-  <si>
-    <t>1882 | 27.6%</t>
-  </si>
-  <si>
-    <t>97 | 1.9%</t>
-  </si>
-  <si>
-    <t>2584 | 51.2%</t>
-  </si>
-  <si>
-    <t>3729 | 73.5%</t>
-  </si>
-  <si>
-    <t>p46</t>
-  </si>
-  <si>
-    <t>230 | 3.8%</t>
-  </si>
-  <si>
-    <t>2005 | 31.1%</t>
-  </si>
-  <si>
-    <t>143 | 2.6%</t>
-  </si>
-  <si>
-    <t>2770 | 48.4%</t>
-  </si>
-  <si>
-    <t>4034 | 70.4%</t>
-  </si>
-  <si>
-    <t>p47</t>
-  </si>
-  <si>
-    <t>171 | 2.9%</t>
-  </si>
-  <si>
-    <t>2159 | 35.6%</t>
-  </si>
-  <si>
-    <t>191 | 2%</t>
-  </si>
-  <si>
-    <t>5874 | 59%</t>
-  </si>
-  <si>
-    <t>7935 | 79.1%</t>
-  </si>
-  <si>
-    <t>p48</t>
-  </si>
-  <si>
-    <t>210 | 4.5%</t>
-  </si>
-  <si>
-    <t>1153 | 24.5%</t>
-  </si>
-  <si>
-    <t>281 | 2.7%</t>
-  </si>
-  <si>
-    <t>6439 | 58.6%</t>
-  </si>
-  <si>
-    <t>8633 | 78.3%</t>
-  </si>
-  <si>
-    <t>p49</t>
-  </si>
-  <si>
-    <t>177 | 3.8%</t>
-  </si>
-  <si>
-    <t>1326 | 26.7%</t>
-  </si>
-  <si>
-    <t>302 | 3.2%</t>
-  </si>
-  <si>
-    <t>6052 | 59.1%</t>
-  </si>
-  <si>
-    <t>7999 | 77.8%</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>145 | 3.5%</t>
-  </si>
-  <si>
-    <t>1462 | 35.3%</t>
-  </si>
-  <si>
-    <t>303 | 2.8%</t>
-  </si>
-  <si>
-    <t>6605 | 60.2%</t>
-  </si>
-  <si>
-    <t>8873 | 80.5%</t>
-  </si>
-  <si>
-    <t>p51</t>
-  </si>
-  <si>
-    <t>187 | 3.7%</t>
-  </si>
-  <si>
-    <t>1609 | 32.3%</t>
-  </si>
-  <si>
-    <t>391 | 3.4%</t>
-  </si>
-  <si>
-    <t>7110 | 61.1%</t>
-  </si>
-  <si>
-    <t>9385 | 80.3%</t>
-  </si>
-  <si>
-    <t>p52</t>
-  </si>
-  <si>
-    <t>286 | 5%</t>
-  </si>
-  <si>
-    <t>1829 | 30.6%</t>
-  </si>
-  <si>
-    <t>236 | 2.7%</t>
-  </si>
-  <si>
-    <t>5266 | 59.4%</t>
-  </si>
-  <si>
-    <t>7047 | 79.2%</t>
-  </si>
-  <si>
-    <t>p53</t>
-  </si>
-  <si>
-    <t>191 | 3.9%</t>
-  </si>
-  <si>
-    <t>1738 | 36.2%</t>
-  </si>
-  <si>
-    <t>323 | 3.2%</t>
-  </si>
-  <si>
-    <t>6644 | 61.8%</t>
-  </si>
-  <si>
-    <t>8743 | 80.6%</t>
-  </si>
-  <si>
-    <t>p54</t>
-  </si>
-  <si>
-    <t>205 | 4.2%</t>
-  </si>
-  <si>
-    <t>1767 | 35.2%</t>
-  </si>
-  <si>
-    <t>226 | 2.2%</t>
-  </si>
-  <si>
-    <t>6277 | 61.2%</t>
-  </si>
-  <si>
-    <t>8337 | 80.9%</t>
-  </si>
-  <si>
-    <t>p55</t>
-  </si>
-  <si>
-    <t>100 | 2.9%</t>
-  </si>
-  <si>
-    <t>1144 | 31.6%</t>
-  </si>
-  <si>
-    <t>109 | 1.2%</t>
-  </si>
-  <si>
-    <t>5731 | 61.4%</t>
-  </si>
-  <si>
-    <t>7488 | 79.8%</t>
-  </si>
-  <si>
-    <t>p56</t>
-  </si>
-  <si>
-    <t>143 | 3.4%</t>
-  </si>
-  <si>
-    <t>1467 | 34.2%</t>
-  </si>
-  <si>
-    <t>339 | 4%</t>
-  </si>
-  <si>
-    <t>5672 | 61%</t>
-  </si>
-  <si>
-    <t>7463 | 80%</t>
-  </si>
-  <si>
-    <t>p57</t>
-  </si>
-  <si>
-    <t>199 | 3.6%</t>
-  </si>
-  <si>
-    <t>1674 | 26%</t>
-  </si>
-  <si>
-    <t>77 | 1.6%</t>
-  </si>
-  <si>
-    <t>2373 | 50.7%</t>
-  </si>
-  <si>
-    <t>3426 | 73.2%</t>
-  </si>
-  <si>
-    <t>p58</t>
-  </si>
-  <si>
-    <t>204 | 3.8%</t>
-  </si>
-  <si>
-    <t>2255 | 41.5%</t>
-  </si>
-  <si>
-    <t>207 | 5%</t>
-  </si>
-  <si>
-    <t>2311 | 52.3%</t>
-  </si>
-  <si>
-    <t>3293 | 74.6%</t>
-  </si>
-  <si>
-    <t>p59</t>
-  </si>
-  <si>
-    <t>203 | 4.4%</t>
-  </si>
-  <si>
-    <t>1690 | 34.1%</t>
-  </si>
-  <si>
-    <t>285 | 6.2%</t>
-  </si>
-  <si>
-    <t>2520 | 51.3%</t>
-  </si>
-  <si>
-    <t>3591 | 73.2%</t>
-  </si>
-  <si>
-    <t>p60</t>
-  </si>
-  <si>
-    <t>165 | 3.8%</t>
-  </si>
-  <si>
-    <t>1471 | 30.5%</t>
-  </si>
-  <si>
-    <t>230 | 5.6%</t>
-  </si>
-  <si>
-    <t>2510 | 52.3%</t>
-  </si>
-  <si>
-    <t>3515 | 73%</t>
-  </si>
-  <si>
-    <t>p61</t>
-  </si>
-  <si>
-    <t>154 | 3.4%</t>
-  </si>
-  <si>
-    <t>1799 | 39.8%</t>
-  </si>
-  <si>
-    <t>314 | 7.6%</t>
-  </si>
-  <si>
-    <t>2336 | 54%</t>
-  </si>
-  <si>
-    <t>3211 | 74.4%</t>
-  </si>
-  <si>
-    <t>p62</t>
-  </si>
-  <si>
-    <t>132 | 2.6%</t>
-  </si>
-  <si>
-    <t>2107 | 41.6%</t>
-  </si>
-  <si>
-    <t>343 | 8.6%</t>
-  </si>
-  <si>
-    <t>2289 | 54.2%</t>
-  </si>
-  <si>
-    <t>3170 | 75.2%</t>
-  </si>
-  <si>
-    <t>p63</t>
-  </si>
-  <si>
-    <t>169 | 3.4%</t>
-  </si>
-  <si>
-    <t>1883 | 38.6%</t>
-  </si>
-  <si>
-    <t>187 | 3.8%</t>
-  </si>
-  <si>
-    <t>2561 | 50.5%</t>
-  </si>
-  <si>
-    <t>3631 | 71.3%</t>
-  </si>
-  <si>
-    <t>p64</t>
-  </si>
-  <si>
-    <t>154 | 3.2%</t>
-  </si>
-  <si>
-    <t>2035 | 40.7%</t>
-  </si>
-  <si>
-    <t>217 | 5%</t>
-  </si>
-  <si>
-    <t>2394 | 52.1%</t>
-  </si>
-  <si>
-    <t>3362 | 73.5%</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>202 | 3.7%</t>
-  </si>
-  <si>
-    <t>1684 | 23.8%</t>
-  </si>
-  <si>
-    <t>141 | 3.9%</t>
-  </si>
-  <si>
-    <t>1857 | 47%</t>
-  </si>
-  <si>
-    <t>2669 | 67.5%</t>
-  </si>
-  <si>
-    <t>p66</t>
-  </si>
-  <si>
-    <t>190 | 4%</t>
-  </si>
-  <si>
-    <t>1816 | 38.8%</t>
-  </si>
-  <si>
-    <t>245 | 6.3%</t>
-  </si>
-  <si>
-    <t>2199 | 51.1%</t>
-  </si>
-  <si>
-    <t>3070 | 71.2%</t>
-  </si>
-  <si>
-    <t>p67</t>
-  </si>
-  <si>
-    <t>166 | 3.4%</t>
-  </si>
-  <si>
-    <t>1615 | 33.7%</t>
-  </si>
-  <si>
-    <t>111 | 1.7%</t>
-  </si>
-  <si>
-    <t>4258 | 61.7%</t>
-  </si>
-  <si>
-    <t>5637 | 81.3%</t>
-  </si>
-  <si>
-    <t>Assay</t>
-  </si>
-  <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
   </si>
 </sst>
 </file>
@@ -1771,23 +1771,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454BB573-EEAC-3046-9022-B181103699C2}">
   <dimension ref="A1:M734"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1795,7 +1795,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1808,54 +1808,54 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>17437</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="3">
         <v>5291</v>
@@ -1870,13 +1870,13 @@
         <v>17424</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="L5" s="3">
         <v>5468</v>
@@ -1887,16 +1887,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3">
         <v>8104</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>5324</v>
@@ -1911,13 +1911,13 @@
         <v>15371</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="L6" s="3">
         <v>5446</v>
@@ -1928,16 +1928,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3">
         <v>8744</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E7" s="3">
         <v>5346</v>
@@ -1952,13 +1952,13 @@
         <v>19577</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="L7" s="3">
         <v>4574</v>
@@ -1969,16 +1969,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>12297</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="3">
         <v>4587</v>
@@ -1993,13 +1993,13 @@
         <v>13845</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="L8" s="3">
         <v>5524</v>
@@ -2010,16 +2010,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3">
         <v>16179</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E9" s="3">
         <v>4454</v>
@@ -2034,13 +2034,13 @@
         <v>18404</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="L9" s="3">
         <v>4930</v>
@@ -2051,16 +2051,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3">
         <v>12660</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="3">
         <v>4978</v>
@@ -2075,13 +2075,13 @@
         <v>14387</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="L10" s="3">
         <v>5492</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3">
         <v>8672</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="3">
         <v>4524</v>
@@ -2116,13 +2116,13 @@
         <v>5859</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="L11" s="3">
         <v>10228</v>
@@ -2133,16 +2133,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3">
         <v>7804</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E12" s="3">
         <v>3916</v>
@@ -2157,13 +2157,13 @@
         <v>8867</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="L12" s="3">
         <v>9425</v>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3">
         <v>7584</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E13" s="3">
         <v>3875</v>
@@ -2198,13 +2198,13 @@
         <v>12249</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="L13" s="3">
         <v>8242</v>
@@ -2215,16 +2215,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3">
         <v>8987</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E14" s="3">
         <v>5108</v>
@@ -2239,13 +2239,13 @@
         <v>15859</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L14" s="3">
         <v>4707</v>
@@ -2256,16 +2256,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3">
         <v>10341</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E15" s="3">
         <v>5150</v>
@@ -2280,13 +2280,13 @@
         <v>16103</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="L15" s="3">
         <v>4858</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="3">
         <v>10003</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E16" s="3">
         <v>4762</v>
@@ -2321,13 +2321,13 @@
         <v>16608</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="L16" s="3">
         <v>5559</v>
@@ -2338,16 +2338,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3">
         <v>8138</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E17" s="3">
         <v>5117</v>
@@ -2362,13 +2362,13 @@
         <v>13742</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="L17" s="3">
         <v>5799</v>
@@ -2379,16 +2379,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="3">
         <v>9158</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E18" s="3">
         <v>4003</v>
@@ -2403,13 +2403,13 @@
         <v>14223</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="L18" s="3">
         <v>5585</v>
@@ -2420,16 +2420,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="3">
         <v>5946</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E19" s="3">
         <v>4408</v>
@@ -2444,13 +2444,13 @@
         <v>8456</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="L19" s="3">
         <v>5458</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3">
         <v>10938</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E20" s="3">
         <v>4809</v>
@@ -2485,13 +2485,13 @@
         <v>11510</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="L20" s="3">
         <v>7795</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="3">
         <v>9262</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="E21" s="3">
         <v>5277</v>
@@ -2526,13 +2526,13 @@
         <v>8535</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="L21" s="3">
         <v>5948</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="3">
         <v>9417</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E22" s="3">
         <v>4097</v>
@@ -2567,13 +2567,13 @@
         <v>12210</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L22" s="3">
         <v>3628</v>
@@ -2584,16 +2584,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="3">
         <v>8080</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E23" s="3">
         <v>4820</v>
@@ -2608,13 +2608,13 @@
         <v>8701</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="L23" s="3">
         <v>3251</v>
@@ -2625,16 +2625,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="3">
         <v>8227</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E24" s="3">
         <v>5194</v>
@@ -2649,13 +2649,13 @@
         <v>12349</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="L24" s="3">
         <v>3197</v>
@@ -2666,16 +2666,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="3">
         <v>4819</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="E25" s="3">
         <v>6525</v>
@@ -2690,13 +2690,13 @@
         <v>6733</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="L25" s="3">
         <v>3902</v>
@@ -2707,16 +2707,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="3">
         <v>8136</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E26" s="3">
         <v>4924</v>
@@ -2731,13 +2731,13 @@
         <v>16382</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="L26" s="3">
         <v>3914</v>
@@ -2748,16 +2748,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="3">
         <v>10173</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E27" s="3">
         <v>5113</v>
@@ -2772,13 +2772,13 @@
         <v>14215</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="L27" s="3">
         <v>4514</v>
@@ -2789,16 +2789,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="3">
         <v>17144</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E28" s="3">
         <v>5215</v>
@@ -2813,13 +2813,13 @@
         <v>13925</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="L28" s="3">
         <v>5104</v>
@@ -2830,16 +2830,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="3">
         <v>6391</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E29" s="3">
         <v>4481</v>
@@ -2854,13 +2854,13 @@
         <v>7923</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="L29" s="3">
         <v>6850</v>
@@ -2871,16 +2871,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3">
         <v>11740</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E30" s="3">
         <v>4493</v>
@@ -2895,13 +2895,13 @@
         <v>13755</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="L30" s="3">
         <v>6131</v>
@@ -2912,16 +2912,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="3">
         <v>14311</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E31" s="3">
         <v>4762</v>
@@ -2936,13 +2936,13 @@
         <v>17432</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="L31" s="3">
         <v>4634</v>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="3">
         <v>13778</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E32" s="3">
         <v>5344</v>
@@ -2977,13 +2977,13 @@
         <v>18463</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="L32" s="3">
         <v>4486</v>
@@ -2994,16 +2994,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="3">
         <v>8798</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E33" s="3">
         <v>4507</v>
@@ -3018,13 +3018,13 @@
         <v>14753</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="L33" s="3">
         <v>5993</v>
@@ -3035,16 +3035,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B34" s="3">
         <v>3996</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="E34" s="3">
         <v>4775</v>
@@ -3059,13 +3059,13 @@
         <v>3062</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="L34" s="3">
         <v>9033</v>
@@ -3076,16 +3076,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="3">
         <v>6460</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E35" s="3">
         <v>4016</v>
@@ -3100,13 +3100,13 @@
         <v>14178</v>
       </c>
       <c r="I35" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="L35" s="3">
         <v>5369</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="3">
         <v>11686</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="3">
         <v>5163</v>
@@ -3141,13 +3141,13 @@
         <v>15121</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="L36" s="3">
         <v>4891</v>
@@ -3158,16 +3158,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="3">
         <v>10330</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E37" s="3">
         <v>3609</v>
@@ -3182,13 +3182,13 @@
         <v>7309</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="L37" s="3">
         <v>11096</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="3">
         <v>14344</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E38" s="3">
         <v>5586</v>
@@ -3223,13 +3223,13 @@
         <v>15694</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="L38" s="3">
         <v>6334</v>
@@ -3240,16 +3240,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B39" s="3">
         <v>10173</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="3">
         <v>4744</v>
@@ -3264,13 +3264,13 @@
         <v>15266</v>
       </c>
       <c r="I39" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="L39" s="3">
         <v>5634</v>
@@ -3281,16 +3281,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B40" s="3">
         <v>1221</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E40" s="3">
         <v>6459</v>
@@ -3305,13 +3305,13 @@
         <v>5500</v>
       </c>
       <c r="I40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="L40" s="3">
         <v>7155</v>
@@ -3322,16 +3322,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41" s="3">
         <v>12372</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E41" s="3">
         <v>4544</v>
@@ -3346,13 +3346,13 @@
         <v>11652</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="L41" s="3">
         <v>6328</v>
@@ -3363,16 +3363,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" s="3">
         <v>4431</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E42" s="3">
         <v>3778</v>
@@ -3387,13 +3387,13 @@
         <v>6790</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="L42" s="3">
         <v>6152</v>
@@ -3404,16 +3404,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="3">
         <v>10670</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="E43" s="3">
         <v>3928</v>
@@ -3428,13 +3428,13 @@
         <v>14314</v>
       </c>
       <c r="I43" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="L43" s="3">
         <v>3876</v>
@@ -3445,16 +3445,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="3">
         <v>11272</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="E44" s="3">
         <v>5604</v>
@@ -3469,13 +3469,13 @@
         <v>16280</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="L44" s="3">
         <v>5449</v>
@@ -3486,16 +3486,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="3">
         <v>18841</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E45" s="3">
         <v>5997</v>
@@ -3510,13 +3510,13 @@
         <v>15794</v>
       </c>
       <c r="I45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="L45" s="3">
         <v>5998</v>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="3">
         <v>16274</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="E46" s="3">
         <v>5472</v>
@@ -3551,13 +3551,13 @@
         <v>19416</v>
       </c>
       <c r="I46" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="L46" s="3">
         <v>4655</v>
@@ -3568,16 +3568,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47" s="3">
         <v>16312</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E47" s="3">
         <v>3943</v>
@@ -3592,13 +3592,13 @@
         <v>15561</v>
       </c>
       <c r="I47" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="L47" s="3">
         <v>6313</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" s="3">
         <v>9302</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E48" s="3">
         <v>5598</v>
@@ -3633,13 +3633,13 @@
         <v>13728</v>
       </c>
       <c r="I48" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="L48" s="3">
         <v>6781</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="3">
         <v>10813</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="E49" s="3">
         <v>6096</v>
@@ -3674,13 +3674,13 @@
         <v>14381</v>
       </c>
       <c r="I49" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="L49" s="3">
         <v>5064</v>
@@ -3691,16 +3691,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" s="3">
         <v>15238</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E50" s="3">
         <v>5967</v>
@@ -3715,13 +3715,13 @@
         <v>15726</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="L50" s="3">
         <v>5898</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" s="3">
         <v>13467</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E51" s="3">
         <v>6146</v>
@@ -3756,13 +3756,13 @@
         <v>16282</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="L51" s="3">
         <v>10052</v>
@@ -3773,16 +3773,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" s="3">
         <v>13905</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="E52" s="3">
         <v>4430</v>
@@ -3797,13 +3797,13 @@
         <v>12494</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="L52" s="3">
         <v>11050</v>
@@ -3814,16 +3814,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B53" s="3">
         <v>10868</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E53" s="3">
         <v>4596</v>
@@ -3838,13 +3838,13 @@
         <v>12496</v>
       </c>
       <c r="I53" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="L53" s="3">
         <v>10312</v>
@@ -3855,16 +3855,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" s="3">
         <v>9221</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="E54" s="3">
         <v>4321</v>
@@ -3879,13 +3879,13 @@
         <v>15653</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="L54" s="3">
         <v>11052</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B55" s="3">
         <v>9367</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="E55" s="3">
         <v>5036</v>
@@ -3920,13 +3920,13 @@
         <v>14782</v>
       </c>
       <c r="I55" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="L55" s="3">
         <v>11711</v>
@@ -3937,16 +3937,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" s="3">
         <v>10985</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="E56" s="3">
         <v>5585</v>
@@ -3961,13 +3961,13 @@
         <v>17023</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="L56" s="3">
         <v>8947</v>
@@ -3978,16 +3978,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B57" s="3">
         <v>15952</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="E57" s="3">
         <v>4907</v>
@@ -4002,13 +4002,13 @@
         <v>15408</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="L57" s="3">
         <v>10849</v>
@@ -4019,16 +4019,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B58" s="3">
         <v>17830</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="E58" s="3">
         <v>5017</v>
@@ -4043,13 +4043,13 @@
         <v>16344</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="L58" s="3">
         <v>10334</v>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B59" s="3">
         <v>4963</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="E59" s="3">
         <v>3541</v>
@@ -4084,13 +4084,13 @@
         <v>11974</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="L59" s="3">
         <v>9411</v>
@@ -4101,16 +4101,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B60" s="3">
         <v>6851</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E60" s="3">
         <v>4241</v>
@@ -4125,13 +4125,13 @@
         <v>11440</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="L60" s="3">
         <v>9345</v>
@@ -4142,16 +4142,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B61" s="3">
         <v>10839</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="E61" s="3">
         <v>5254</v>
@@ -4166,13 +4166,13 @@
         <v>16998</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="L61" s="3">
         <v>4693</v>
@@ -4183,16 +4183,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B62" s="3">
         <v>10388</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="E62" s="3">
         <v>5443</v>
@@ -4207,13 +4207,13 @@
         <v>18112</v>
       </c>
       <c r="I62" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="L62" s="3">
         <v>4420</v>
@@ -4224,16 +4224,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B63" s="3">
         <v>10764</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E63" s="3">
         <v>4578</v>
@@ -4248,13 +4248,13 @@
         <v>15685</v>
       </c>
       <c r="I63" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="L63" s="3">
         <v>4923</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B64" s="3">
         <v>12542</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="E64" s="3">
         <v>4351</v>
@@ -4289,13 +4289,13 @@
         <v>17377</v>
       </c>
       <c r="I64" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="L64" s="3">
         <v>4829</v>
@@ -4306,16 +4306,16 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B65" s="3">
         <v>12615</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="E65" s="3">
         <v>4545</v>
@@ -4330,13 +4330,13 @@
         <v>16022</v>
       </c>
       <c r="I65" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="L65" s="3">
         <v>4330</v>
@@ -4347,16 +4347,16 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B66" s="3">
         <v>13027</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="E66" s="3">
         <v>5059</v>
@@ -4371,13 +4371,13 @@
         <v>17027</v>
       </c>
       <c r="I66" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="L66" s="3">
         <v>4209</v>
@@ -4388,16 +4388,16 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B67" s="3">
         <v>9876</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="E67" s="3">
         <v>4942</v>
@@ -4412,13 +4412,13 @@
         <v>15398</v>
       </c>
       <c r="I67" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="L67" s="3">
         <v>5068</v>
@@ -4429,16 +4429,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B68" s="3">
         <v>9962</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="E68" s="3">
         <v>4914</v>
@@ -4453,13 +4453,13 @@
         <v>17419</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="L68" s="3">
         <v>4565</v>
@@ -4470,16 +4470,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B69" s="3">
         <v>12388</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="E69" s="3">
         <v>5641</v>
@@ -4494,13 +4494,13 @@
         <v>19880</v>
       </c>
       <c r="I69" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="L69" s="3">
         <v>3939</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B70" s="3">
         <v>7745</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="E70" s="3">
         <v>4719</v>
@@ -4535,13 +4535,13 @@
         <v>16598</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="L70" s="3">
         <v>4321</v>
@@ -4552,16 +4552,16 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" s="3">
         <v>3143</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="E71" s="3">
         <v>4856</v>
@@ -4576,13 +4576,13 @@
         <v>10942</v>
       </c>
       <c r="I71" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="L71" s="3">
         <v>6950</v>
